--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ntn1-Adora2b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.32080608380505</v>
+        <v>2.082653666666667</v>
       </c>
       <c r="H2">
-        <v>1.32080608380505</v>
+        <v>6.247961</v>
       </c>
       <c r="I2">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="J2">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.80327841090918</v>
+        <v>0.3622106666666667</v>
       </c>
       <c r="N2">
-        <v>1.80327841090918</v>
+        <v>1.086632</v>
       </c>
       <c r="O2">
-        <v>0.3456450965233975</v>
+        <v>0.06114405336448104</v>
       </c>
       <c r="P2">
-        <v>0.3456450965233975</v>
+        <v>0.06114405336448104</v>
       </c>
       <c r="Q2">
-        <v>2.381781095923148</v>
+        <v>0.7543593730391112</v>
       </c>
       <c r="R2">
-        <v>2.381781095923148</v>
+        <v>6.789234357352</v>
       </c>
       <c r="S2">
-        <v>0.01057972817651123</v>
+        <v>0.002887161255786018</v>
       </c>
       <c r="T2">
-        <v>0.01057972817651123</v>
+        <v>0.002887161255786018</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.32080608380505</v>
+        <v>2.082653666666667</v>
       </c>
       <c r="H3">
-        <v>1.32080608380505</v>
+        <v>6.247961</v>
       </c>
       <c r="I3">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="J3">
-        <v>0.03060864535017371</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.41386029305942</v>
+        <v>1.875117333333333</v>
       </c>
       <c r="N3">
-        <v>3.41386029305942</v>
+        <v>5.625351999999999</v>
       </c>
       <c r="O3">
-        <v>0.6543549034766024</v>
+        <v>0.316534781675848</v>
       </c>
       <c r="P3">
-        <v>0.6543549034766024</v>
+        <v>0.316534781675848</v>
       </c>
       <c r="Q3">
-        <v>4.509047444333373</v>
+        <v>3.905219989696889</v>
       </c>
       <c r="R3">
-        <v>4.509047444333373</v>
+        <v>35.146979907272</v>
       </c>
       <c r="S3">
-        <v>0.02002891717366247</v>
+        <v>0.01494645689116314</v>
       </c>
       <c r="T3">
-        <v>0.02002891717366247</v>
+        <v>0.01494645689116314</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>37.1306907057968</v>
+        <v>2.082653666666667</v>
       </c>
       <c r="H4">
-        <v>37.1306907057968</v>
+        <v>6.247961</v>
       </c>
       <c r="I4">
-        <v>0.860474642989663</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="J4">
-        <v>0.860474642989663</v>
+        <v>0.0472190032704503</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.80327841090918</v>
+        <v>3.686562333333333</v>
       </c>
       <c r="N4">
-        <v>1.80327841090918</v>
+        <v>11.059687</v>
       </c>
       <c r="O4">
-        <v>0.3456450965233975</v>
+        <v>0.622321164959671</v>
       </c>
       <c r="P4">
-        <v>0.3456450965233975</v>
+        <v>0.622321164959671</v>
       </c>
       <c r="Q4">
-        <v>66.95697293190952</v>
+        <v>7.67783256091189</v>
       </c>
       <c r="R4">
-        <v>66.95697293190952</v>
+        <v>69.100493048207</v>
       </c>
       <c r="S4">
-        <v>0.2974188410320981</v>
+        <v>0.02938538512350115</v>
       </c>
       <c r="T4">
-        <v>0.2974188410320981</v>
+        <v>0.02938538512350115</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>37.1306907057968</v>
+        <v>37.28222</v>
       </c>
       <c r="H5">
-        <v>37.1306907057968</v>
+        <v>111.84666</v>
       </c>
       <c r="I5">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="J5">
-        <v>0.860474642989663</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>3.41386029305942</v>
+        <v>0.3622106666666667</v>
       </c>
       <c r="N5">
-        <v>3.41386029305942</v>
+        <v>1.086632</v>
       </c>
       <c r="O5">
-        <v>0.6543549034766024</v>
+        <v>0.06114405336448104</v>
       </c>
       <c r="P5">
-        <v>0.6543549034766024</v>
+        <v>0.06114405336448104</v>
       </c>
       <c r="Q5">
-        <v>126.7589906543901</v>
+        <v>13.50401776101333</v>
       </c>
       <c r="R5">
-        <v>126.7589906543901</v>
+        <v>121.53615984912</v>
       </c>
       <c r="S5">
-        <v>0.5630558019575649</v>
+        <v>0.05168395630847755</v>
       </c>
       <c r="T5">
-        <v>0.5630558019575649</v>
+        <v>0.05168395630847755</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.69990924926599</v>
+        <v>37.28222</v>
       </c>
       <c r="H6">
-        <v>4.69990924926599</v>
+        <v>111.84666</v>
       </c>
       <c r="I6">
-        <v>0.1089167116601631</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="J6">
-        <v>0.1089167116601631</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.80327841090918</v>
+        <v>1.875117333333333</v>
       </c>
       <c r="N6">
-        <v>1.80327841090918</v>
+        <v>5.625351999999999</v>
       </c>
       <c r="O6">
-        <v>0.3456450965233975</v>
+        <v>0.316534781675848</v>
       </c>
       <c r="P6">
-        <v>0.3456450965233975</v>
+        <v>0.316534781675848</v>
       </c>
       <c r="Q6">
-        <v>8.475244882433731</v>
+        <v>69.90853694714664</v>
       </c>
       <c r="R6">
-        <v>8.475244882433731</v>
+        <v>629.1768325243198</v>
       </c>
       <c r="S6">
-        <v>0.03764652731478813</v>
+        <v>0.2675610942690872</v>
       </c>
       <c r="T6">
-        <v>0.03764652731478813</v>
+        <v>0.2675610942690872</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.69990924926599</v>
+        <v>37.28222</v>
       </c>
       <c r="H7">
-        <v>4.69990924926599</v>
+        <v>111.84666</v>
       </c>
       <c r="I7">
-        <v>0.1089167116601631</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="J7">
-        <v>0.1089167116601631</v>
+        <v>0.8452818134314446</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.41386029305942</v>
+        <v>3.686562333333333</v>
       </c>
       <c r="N7">
-        <v>3.41386029305942</v>
+        <v>11.059687</v>
       </c>
       <c r="O7">
-        <v>0.6543549034766024</v>
+        <v>0.622321164959671</v>
       </c>
       <c r="P7">
-        <v>0.6543549034766024</v>
+        <v>0.622321164959671</v>
       </c>
       <c r="Q7">
-        <v>16.04483356705187</v>
+        <v>137.4432279550466</v>
       </c>
       <c r="R7">
-        <v>16.04483356705187</v>
+        <v>1236.98905159542</v>
       </c>
       <c r="S7">
-        <v>0.07127018434537497</v>
+        <v>0.5260367628538799</v>
       </c>
       <c r="T7">
-        <v>0.07127018434537497</v>
+        <v>0.5260367628538799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>4.741387</v>
+      </c>
+      <c r="H8">
+        <v>14.224161</v>
+      </c>
+      <c r="I8">
+        <v>0.107499183298105</v>
+      </c>
+      <c r="J8">
+        <v>0.107499183298105</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.3622106666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.086632</v>
+      </c>
+      <c r="O8">
+        <v>0.06114405336448104</v>
+      </c>
+      <c r="P8">
+        <v>0.06114405336448104</v>
+      </c>
+      <c r="Q8">
+        <v>1.717380946194667</v>
+      </c>
+      <c r="R8">
+        <v>15.456428515752</v>
+      </c>
+      <c r="S8">
+        <v>0.006572935800217464</v>
+      </c>
+      <c r="T8">
+        <v>0.006572935800217463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>4.741387</v>
+      </c>
+      <c r="H9">
+        <v>14.224161</v>
+      </c>
+      <c r="I9">
+        <v>0.107499183298105</v>
+      </c>
+      <c r="J9">
+        <v>0.107499183298105</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.875117333333333</v>
+      </c>
+      <c r="N9">
+        <v>5.625351999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.316534781675848</v>
+      </c>
+      <c r="P9">
+        <v>0.316534781675848</v>
+      </c>
+      <c r="Q9">
+        <v>8.890656947741332</v>
+      </c>
+      <c r="R9">
+        <v>80.01591252967199</v>
+      </c>
+      <c r="S9">
+        <v>0.03402723051559765</v>
+      </c>
+      <c r="T9">
+        <v>0.03402723051559765</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>4.741387</v>
+      </c>
+      <c r="H10">
+        <v>14.224161</v>
+      </c>
+      <c r="I10">
+        <v>0.107499183298105</v>
+      </c>
+      <c r="J10">
+        <v>0.107499183298105</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.686562333333333</v>
+      </c>
+      <c r="N10">
+        <v>11.059687</v>
+      </c>
+      <c r="O10">
+        <v>0.622321164959671</v>
+      </c>
+      <c r="P10">
+        <v>0.622321164959671</v>
+      </c>
+      <c r="Q10">
+        <v>17.47941872195634</v>
+      </c>
+      <c r="R10">
+        <v>157.314768497607</v>
+      </c>
+      <c r="S10">
+        <v>0.06689901698228994</v>
+      </c>
+      <c r="T10">
+        <v>0.06689901698228994</v>
       </c>
     </row>
   </sheetData>
